--- a/PROmanagerHELPER/bin/x64/Debug/template.xlsx
+++ b/PROmanagerHELPER/bin/x64/Debug/template.xlsx
@@ -2,13 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АндрейACER\source\repos\PROmanagerHELPER\PROmanagerHELPER\bin\x64\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Лист1!$C$1:$K$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,14 +26,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Алтуфьевское</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>иншур"</t>
+  </si>
+  <si>
+    <t>Название 1</t>
+  </si>
+  <si>
+    <t>Название 2</t>
+  </si>
+  <si>
+    <t>Клиент №</t>
+  </si>
+  <si>
+    <t>Контрагент назание 1</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>КПП</t>
+  </si>
+  <si>
+    <t>ОПП АО "Петросах"</t>
+  </si>
+  <si>
+    <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "ПЕТРОСАХ"</t>
+  </si>
+  <si>
+    <t>Осенняя улица, дом 11, 8 этаж пом. 1, офис 815</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,13 +117,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -68,10 +141,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Клиент №"/>
+    <tableColumn id="2" name="Название 1"/>
+    <tableColumn id="3" name="Название 2"/>
+    <tableColumn id="4" name="Контрагент назание 1"/>
+    <tableColumn id="5" name="ИНН"/>
+    <tableColumn id="11" name="КПП"/>
+    <tableColumn id="6" name="ОГРН" dataDxfId="0"/>
+    <tableColumn id="7" name="Город"/>
+    <tableColumn id="8" name="Улица"/>
+    <tableColumn id="9" name="Дом"/>
+    <tableColumn id="10" name="Столбец1"/>
+    <tableColumn id="12" name="ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +179,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +191,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,12 +203,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +238,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,9 +290,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +459,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>6501037203</v>
+      </c>
+      <c r="F2">
+        <v>773101001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1026500535577</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>